--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Ldlr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H2">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I2">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J2">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N2">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O2">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P2">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q2">
-        <v>0.5497711170735</v>
+        <v>16.167150369146</v>
       </c>
       <c r="R2">
-        <v>2.199084468294</v>
+        <v>64.668601476584</v>
       </c>
       <c r="S2">
-        <v>2.50806337866538E-05</v>
+        <v>0.0004392926254900752</v>
       </c>
       <c r="T2">
-        <v>1.192551508128827E-05</v>
+        <v>0.0002119580152012173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H3">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I3">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J3">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N3">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O3">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P3">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q3">
-        <v>3.094188740626</v>
+        <v>67.80985613993734</v>
       </c>
       <c r="R3">
-        <v>18.565132443756</v>
+        <v>406.8591368396241</v>
       </c>
       <c r="S3">
-        <v>0.0001411573148540889</v>
+        <v>0.001842524443557266</v>
       </c>
       <c r="T3">
-        <v>0.000100677700259455</v>
+        <v>0.001333522809245117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H4">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I4">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J4">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N4">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O4">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P4">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q4">
-        <v>2.177860276086</v>
+        <v>96.18194049266599</v>
       </c>
       <c r="R4">
-        <v>13.067161656516</v>
+        <v>577.091642955996</v>
       </c>
       <c r="S4">
-        <v>9.935428458623657E-05</v>
+        <v>0.002613448641164912</v>
       </c>
       <c r="T4">
-        <v>7.086250467009335E-05</v>
+        <v>0.001891477416199472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H5">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I5">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J5">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N5">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O5">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P5">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q5">
-        <v>1.388250199878</v>
+        <v>41.975950898574</v>
       </c>
       <c r="R5">
-        <v>5.553000799512001</v>
+        <v>167.903803594296</v>
       </c>
       <c r="S5">
-        <v>6.333216457919913E-05</v>
+        <v>0.001140567462826852</v>
       </c>
       <c r="T5">
-        <v>3.011362034326949E-05</v>
+        <v>0.0005503220441139174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H6">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I6">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J6">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N6">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O6">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P6">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q6">
-        <v>0.4144859434529999</v>
+        <v>11.58772612434733</v>
       </c>
       <c r="R6">
-        <v>2.486915660718</v>
+        <v>69.52635674608401</v>
       </c>
       <c r="S6">
-        <v>1.890890560565877E-05</v>
+        <v>0.0003148608453805929</v>
       </c>
       <c r="T6">
-        <v>1.348640793265767E-05</v>
+        <v>0.0002278798094220078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H7">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I7">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J7">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N7">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O7">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P7">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q7">
-        <v>2.291920434885999</v>
+        <v>25.725784942382</v>
       </c>
       <c r="R7">
-        <v>13.751522609316</v>
+        <v>154.354709654292</v>
       </c>
       <c r="S7">
-        <v>0.0001045577246791579</v>
+        <v>0.0006990191438869506</v>
       </c>
       <c r="T7">
-        <v>7.457375677583561E-05</v>
+        <v>0.0005059134904460611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>3.752158</v>
       </c>
       <c r="I8">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J8">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N8">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O8">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P8">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q8">
-        <v>3.482853738506334</v>
+        <v>4.673484137548667</v>
       </c>
       <c r="R8">
-        <v>20.897122431038</v>
+        <v>28.040904825292</v>
       </c>
       <c r="S8">
-        <v>0.0001588882653802221</v>
+        <v>0.0001269875686248362</v>
       </c>
       <c r="T8">
-        <v>0.0001133239547183932</v>
+        <v>9.190695941317401E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>3.752158</v>
       </c>
       <c r="I9">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J9">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N9">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O9">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P9">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q9">
         <v>19.60198796964578</v>
@@ -1013,10 +1013,10 @@
         <v>176.417891726812</v>
       </c>
       <c r="S9">
-        <v>0.0008942453804668536</v>
+        <v>0.0005326237811484786</v>
       </c>
       <c r="T9">
-        <v>0.0009567046008147721</v>
+        <v>0.0005782278466303021</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>3.752158</v>
       </c>
       <c r="I10">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J10">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N10">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O10">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P10">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q10">
-        <v>13.79695762281467</v>
+        <v>27.80358708538866</v>
       </c>
       <c r="R10">
-        <v>124.172618605332</v>
+        <v>250.232283768498</v>
       </c>
       <c r="S10">
-        <v>0.0006294190996242058</v>
+        <v>0.0007554770315053061</v>
       </c>
       <c r="T10">
-        <v>0.0006733813353744121</v>
+        <v>0.0008201621342630016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>3.752158</v>
       </c>
       <c r="I11">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J11">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N11">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O11">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P11">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q11">
-        <v>8.794700646270668</v>
+        <v>12.134107508358</v>
       </c>
       <c r="R11">
-        <v>52.768203877624</v>
+        <v>72.804645050148</v>
       </c>
       <c r="S11">
-        <v>0.0004012154500704204</v>
+        <v>0.0003297070803212299</v>
       </c>
       <c r="T11">
-        <v>0.000286159090397872</v>
+        <v>0.0002386247376610756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>3.752158</v>
       </c>
       <c r="I12">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J12">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N12">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O12">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P12">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q12">
-        <v>2.625808946454</v>
+        <v>3.349696946949111</v>
       </c>
       <c r="R12">
-        <v>23.632280518086</v>
+        <v>30.147272522542</v>
       </c>
       <c r="S12">
-        <v>0.0001197897643846711</v>
+        <v>9.101772005718613E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001281565677840036</v>
+        <v>9.881079692007802E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>3.752158</v>
       </c>
       <c r="I13">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J13">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N13">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O13">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P13">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q13">
-        <v>14.51953987232578</v>
+        <v>7.436625818960668</v>
       </c>
       <c r="R13">
-        <v>130.675858850932</v>
+        <v>66.929632370646</v>
       </c>
       <c r="S13">
-        <v>0.000662383400981459</v>
+        <v>0.0002020674519755257</v>
       </c>
       <c r="T13">
-        <v>0.0007086480523852</v>
+        <v>0.000219368777297063</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H14">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I14">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J14">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N14">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O14">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P14">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q14">
-        <v>729.8023859197075</v>
+        <v>407.5847125729696</v>
       </c>
       <c r="R14">
-        <v>4378.814315518244</v>
+        <v>2445.508275437818</v>
       </c>
       <c r="S14">
-        <v>0.033293684970779</v>
+        <v>0.0110748619520173</v>
       </c>
       <c r="T14">
-        <v>0.02374607110857574</v>
+        <v>0.008015405751547612</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H15">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I15">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J15">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N15">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O15">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P15">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q15">
-        <v>4107.429901765561</v>
+        <v>1709.5319888381</v>
       </c>
       <c r="R15">
-        <v>36966.86911589005</v>
+        <v>15385.7878995429</v>
       </c>
       <c r="S15">
-        <v>0.1873815156367352</v>
+        <v>0.04645127796727657</v>
       </c>
       <c r="T15">
-        <v>0.2004693141648884</v>
+        <v>0.0504285076688237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H16">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I16">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J16">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N16">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O16">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P16">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q16">
-        <v>2891.035153225091</v>
+        <v>2424.811279372329</v>
       </c>
       <c r="R16">
-        <v>26019.31637902581</v>
+        <v>21823.30151435097</v>
       </c>
       <c r="S16">
-        <v>0.1318894203252354</v>
+        <v>0.06588679445119097</v>
       </c>
       <c r="T16">
-        <v>0.1411013330122795</v>
+        <v>0.07152812289893812</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H17">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I17">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J17">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N17">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O17">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P17">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q17">
-        <v>1842.854738382019</v>
+        <v>1058.241897386157</v>
       </c>
       <c r="R17">
-        <v>11057.12843029211</v>
+        <v>6349.451384316942</v>
       </c>
       <c r="S17">
-        <v>0.08407128599514964</v>
+        <v>0.0287544713132349</v>
       </c>
       <c r="T17">
-        <v>0.05996220415920876</v>
+        <v>0.02081098218157309</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H18">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I18">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J18">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N18">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O18">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P18">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q18">
-        <v>550.215937265652</v>
+        <v>292.1343535456881</v>
       </c>
       <c r="R18">
-        <v>4951.943435390868</v>
+        <v>2629.209181911193</v>
       </c>
       <c r="S18">
-        <v>0.02510092654484681</v>
+        <v>0.007937853253956597</v>
       </c>
       <c r="T18">
-        <v>0.02685411905357749</v>
+        <v>0.008617504430623884</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H19">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I19">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J19">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N19">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O19">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P19">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q19">
-        <v>3042.446119435402</v>
+        <v>648.5643061417677</v>
       </c>
       <c r="R19">
-        <v>27382.01507491861</v>
+        <v>5837.078755275909</v>
       </c>
       <c r="S19">
-        <v>0.1387968093765532</v>
+        <v>0.01762274181527365</v>
       </c>
       <c r="T19">
-        <v>0.1484911736861707</v>
+        <v>0.01913162801254423</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H20">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I20">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J20">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N20">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O20">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P20">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q20">
-        <v>4.929394081531501</v>
+        <v>14.8215967270385</v>
       </c>
       <c r="R20">
-        <v>29.576364489189</v>
+        <v>59.286386908154</v>
       </c>
       <c r="S20">
-        <v>0.0002248796342869019</v>
+        <v>0.0004027313404965739</v>
       </c>
       <c r="T20">
-        <v>0.0001603910108278511</v>
+        <v>0.000194317251503481</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H21">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I21">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J21">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N21">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O21">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P21">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q21">
-        <v>27.743319340554</v>
+        <v>62.16620238423234</v>
       </c>
       <c r="R21">
-        <v>249.689874064986</v>
+        <v>372.997214305394</v>
       </c>
       <c r="S21">
-        <v>0.001265654034556346</v>
+        <v>0.001689175497138606</v>
       </c>
       <c r="T21">
-        <v>0.001354054563041398</v>
+        <v>0.001222536863556286</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H22">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I22">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J22">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N22">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O22">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P22">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q22">
-        <v>19.527274572894</v>
+        <v>88.1769453401585</v>
       </c>
       <c r="R22">
-        <v>175.745471156046</v>
+        <v>529.061672040951</v>
       </c>
       <c r="S22">
-        <v>0.0008908369450567451</v>
+        <v>0.002395937499294701</v>
       </c>
       <c r="T22">
-        <v>0.0009530581007492885</v>
+        <v>0.001734054229786335</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H23">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I23">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J23">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N23">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O23">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P23">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q23">
-        <v>12.447420583662</v>
+        <v>38.4823919025315</v>
       </c>
       <c r="R23">
-        <v>74.68452350197201</v>
+        <v>153.929567610126</v>
       </c>
       <c r="S23">
-        <v>0.0005678530347485423</v>
+        <v>0.001045640733710455</v>
       </c>
       <c r="T23">
-        <v>0.0004050100958843761</v>
+        <v>0.0005045200435212402</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H24">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I24">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J24">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N24">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O24">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P24">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q24">
-        <v>3.716391227337</v>
+        <v>10.62330711825483</v>
       </c>
       <c r="R24">
-        <v>33.447521046033</v>
+        <v>63.739842709529</v>
       </c>
       <c r="S24">
-        <v>0.0001695422776608157</v>
+        <v>0.0002886557227965019</v>
       </c>
       <c r="T24">
-        <v>0.0001813840816108416</v>
+        <v>0.0002089139124933988</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H25">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I25">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J25">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N25">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O25">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P25">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q25">
-        <v>20.549968298094</v>
+        <v>23.5846887791795</v>
       </c>
       <c r="R25">
-        <v>184.949714682846</v>
+        <v>141.508132675077</v>
       </c>
       <c r="S25">
-        <v>0.0009374923731086714</v>
+        <v>0.0006408414357884988</v>
       </c>
       <c r="T25">
-        <v>0.001002972211177187</v>
+        <v>0.0004638075086176151</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H26">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I26">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J26">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N26">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O26">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P26">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q26">
-        <v>476.4920501472309</v>
+        <v>246.1074629381373</v>
       </c>
       <c r="R26">
-        <v>2858.952300883385</v>
+        <v>1476.644777628824</v>
       </c>
       <c r="S26">
-        <v>0.0217376326999675</v>
+        <v>0.006687213954112967</v>
       </c>
       <c r="T26">
-        <v>0.01550394233256457</v>
+        <v>0.004839855649836166</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H27">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I27">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J27">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N27">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O27">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P27">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q27">
-        <v>2681.763902788387</v>
+        <v>1032.248186956252</v>
       </c>
       <c r="R27">
-        <v>24135.87512509549</v>
+        <v>9290.233682606266</v>
       </c>
       <c r="S27">
-        <v>0.1223424371693772</v>
+        <v>0.02804817211762811</v>
       </c>
       <c r="T27">
-        <v>0.1308875338598116</v>
+        <v>0.03044969965577082</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H28">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I28">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J28">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N28">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O28">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P28">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q28">
-        <v>1887.572983845377</v>
+        <v>1464.147534638617</v>
       </c>
       <c r="R28">
-        <v>16988.15685460839</v>
+        <v>13177.32781174756</v>
       </c>
       <c r="S28">
-        <v>0.08611133848830056</v>
+        <v>0.03978370955364562</v>
       </c>
       <c r="T28">
-        <v>0.09212584768519133</v>
+        <v>0.04319005181587467</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H29">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I29">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J29">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N29">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O29">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P29">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q29">
-        <v>1203.210142028497</v>
+        <v>638.986744366476</v>
       </c>
       <c r="R29">
-        <v>7219.260852170981</v>
+        <v>3833.920466198857</v>
       </c>
       <c r="S29">
-        <v>0.05489061175356356</v>
+        <v>0.01736250100832905</v>
       </c>
       <c r="T29">
-        <v>0.03914965769146118</v>
+        <v>0.012566069992237</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H30">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I30">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J30">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N30">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O30">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P30">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q30">
-        <v>359.239055708205</v>
+        <v>176.3963229492582</v>
       </c>
       <c r="R30">
-        <v>3233.151501373845</v>
+        <v>1587.566906543324</v>
       </c>
       <c r="S30">
-        <v>0.01638853500715327</v>
+        <v>0.004793027965092658</v>
       </c>
       <c r="T30">
-        <v>0.01753320417911697</v>
+        <v>0.00520341437462356</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>65.86335866666667</v>
+      </c>
+      <c r="H31">
+        <v>197.590076</v>
+      </c>
+      <c r="I31">
+        <v>0.1073155739386204</v>
+      </c>
+      <c r="J31">
+        <v>0.1078011352397391</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.945879000000001</v>
+      </c>
+      <c r="N31">
+        <v>17.837637</v>
+      </c>
+      <c r="O31">
+        <v>0.09915568588300312</v>
+      </c>
+      <c r="P31">
+        <v>0.1071606873685167</v>
+      </c>
+      <c r="Q31">
+        <v>391.6155611656014</v>
+      </c>
+      <c r="R31">
+        <v>3524.540050490412</v>
+      </c>
+      <c r="S31">
+        <v>0.01064094933981205</v>
+      </c>
+      <c r="T31">
+        <v>0.01155204375139686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H32">
+        <v>1287.750229</v>
+      </c>
+      <c r="I32">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J32">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.736637</v>
+      </c>
+      <c r="N32">
+        <v>7.473274</v>
+      </c>
+      <c r="O32">
+        <v>0.06231354600906058</v>
+      </c>
+      <c r="P32">
+        <v>0.04489614732788115</v>
+      </c>
+      <c r="Q32">
+        <v>1603.951717479958</v>
+      </c>
+      <c r="R32">
+        <v>9623.710304879745</v>
+      </c>
+      <c r="S32">
+        <v>0.04358245856831883</v>
+      </c>
+      <c r="T32">
+        <v>0.0315427037003795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H33">
+        <v>1287.750229</v>
+      </c>
+      <c r="I33">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J33">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>15.67257133333334</v>
+      </c>
+      <c r="N33">
+        <v>47.01771400000001</v>
+      </c>
+      <c r="O33">
+        <v>0.2613616187122139</v>
+      </c>
+      <c r="P33">
+        <v>0.2824617717434394</v>
+      </c>
+      <c r="Q33">
+        <v>6727.452441172945</v>
+      </c>
+      <c r="R33">
+        <v>60547.07197055651</v>
+      </c>
+      <c r="S33">
+        <v>0.1827978449054649</v>
+      </c>
+      <c r="T33">
+        <v>0.1984492768994132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H34">
+        <v>1287.750229</v>
+      </c>
+      <c r="I34">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J34">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>22.230077</v>
+      </c>
+      <c r="N34">
+        <v>66.690231</v>
+      </c>
+      <c r="O34">
+        <v>0.3707170179828705</v>
+      </c>
+      <c r="P34">
+        <v>0.4006456121248099</v>
+      </c>
+      <c r="Q34">
+        <v>9542.262249145877</v>
+      </c>
+      <c r="R34">
+        <v>85880.36024231289</v>
+      </c>
+      <c r="S34">
+        <v>0.259281650806069</v>
+      </c>
+      <c r="T34">
+        <v>0.2814817436297483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H35">
+        <v>1287.750229</v>
+      </c>
+      <c r="I35">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J35">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>9.701703</v>
+      </c>
+      <c r="N35">
+        <v>19.403406</v>
+      </c>
+      <c r="O35">
+        <v>0.1617892014281133</v>
+      </c>
+      <c r="P35">
+        <v>0.116567139708606</v>
+      </c>
+      <c r="Q35">
+        <v>4164.456753313329</v>
+      </c>
+      <c r="R35">
+        <v>24986.74051987998</v>
+      </c>
+      <c r="S35">
+        <v>0.1131563138296908</v>
+      </c>
+      <c r="T35">
+        <v>0.08189662070949971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H31">
-        <v>513.335785</v>
-      </c>
-      <c r="I31">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J31">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>11.60895133333333</v>
-      </c>
-      <c r="N31">
-        <v>34.826854</v>
-      </c>
-      <c r="O31">
-        <v>0.2311224542192443</v>
-      </c>
-      <c r="P31">
-        <v>0.2472280836038346</v>
-      </c>
-      <c r="Q31">
-        <v>1986.430048574488</v>
-      </c>
-      <c r="R31">
-        <v>17877.87043717039</v>
-      </c>
-      <c r="S31">
-        <v>0.09062121134392183</v>
-      </c>
-      <c r="T31">
-        <v>0.09695071589732569</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H36">
+        <v>1287.750229</v>
+      </c>
+      <c r="I36">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J36">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.678216333333333</v>
+      </c>
+      <c r="N36">
+        <v>8.034649</v>
+      </c>
+      <c r="O36">
+        <v>0.04466292998473873</v>
+      </c>
+      <c r="P36">
+        <v>0.04826864172674693</v>
+      </c>
+      <c r="Q36">
+        <v>1149.624565520513</v>
+      </c>
+      <c r="R36">
+        <v>10346.62108968462</v>
+      </c>
+      <c r="S36">
+        <v>0.0312375144774552</v>
+      </c>
+      <c r="T36">
+        <v>0.033912118402664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H37">
+        <v>1287.750229</v>
+      </c>
+      <c r="I37">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J37">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.945879000000001</v>
+      </c>
+      <c r="N37">
+        <v>17.837637</v>
+      </c>
+      <c r="O37">
+        <v>0.09915568588300312</v>
+      </c>
+      <c r="P37">
+        <v>0.1071606873685167</v>
+      </c>
+      <c r="Q37">
+        <v>2552.269014618764</v>
+      </c>
+      <c r="R37">
+        <v>22970.42113156887</v>
+      </c>
+      <c r="S37">
+        <v>0.06935006669626646</v>
+      </c>
+      <c r="T37">
+        <v>0.07528792582821482</v>
       </c>
     </row>
   </sheetData>
